--- a/biology/Médecine/Gabriel_Tourdes/Gabriel_Tourdes.xlsx
+++ b/biology/Médecine/Gabriel_Tourdes/Gabriel_Tourdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Alexandre Hippolyte Joseph Tourdes, né le 21 janvier 1810 à Strasbourg et mort à 26 janvier 1900 à Strasbourg est un médecin français, professeur de médecine légale à la Faculté de médecine de Strasbourg, doyen de la Faculté de Médecine de Nancy.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Joseph Tourdes (1770-1851), médecin militaire, professeur de pathologie et d'hygiène à la Faculté de médecine de Strasbourg et à l'Hôpital militaire d'instruction. 
 Après le baccalauréat (lettres et sciences physiques) en 1827, il poursuit ses études à la Faculté de médecine de Strasbourg, sous la direction de son père. En 1829, il entre comme chirurgien-élève à l'Hôpital militaire. Reçu docteur en médecine, à Strasbourg, en 1832, il est nommé chirurgien aide-major au Val-de-Grâce de Paris. En 1834, il est attaché  à l'Hôpital militaire de Metz puis professeur adjoint à l'Hôpital militaire de Strasbourg l'année suivante. 
@@ -544,7 +558,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Histoire de l'épidémie de méningite cérébro-spinale observée à Strasbourg en 1840 et 1841, Derivaux, Strasbourg, 1842, lire en ligne sur Gallica.
 Excursion médicale en Allemagne : Munich, Nuremberg, Erlangen, Wurtzbourg : lettres adressées à M. le professeur Stoeber, impr. de G. Silbermann, Strasbourg, 1855, lire en ligne sur Gallica.
@@ -557,7 +573,7 @@
 Notice sur les professeurs Sédillot et Michel, impr. de Berger-Levrault, Nancy, 1884, lire en ligne sur Gallica.
 En collaboration
 avec Victor Stoeber, Hydrographie médicale de Strasbourg et du département du Bas-Rhin, Treuttel et Wurtz, Strasbourg, 1862, lire en ligne sur Gallica.
-avec Eugène-Emile Hepp[1], Essai d'un nouvel anesthésique, le bichlorure de méthylène, impr. de G. Silbermann, Strasbourg, 1868, lire en ligne sur Gallica.
+avec Eugène-Emile Hepp, Essai d'un nouvel anesthésique, le bichlorure de méthylène, impr. de G. Silbermann, Strasbourg, 1868, lire en ligne sur Gallica.
 avec Edmond Metzquer,Traité de médecine légale théorique et pratique, Asselin et Houzeau, Paris, 1896, lire en ligne sur Gallica.</t>
         </is>
       </c>
